--- a/results.xlsx
+++ b/results.xlsx
@@ -12,6 +12,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="6900xt" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="rtx 3080" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="rtx 3090" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="rtx 3080 ti" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -500,7 +501,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/204209695620?epid=25045261595&amp;hash=item2f8bd8ab84:g:1KsAAOSwgYRjoyTA&amp;amdata=enc%3AAQAHAAAAkADhvOrmNwc4VdfNgtLzv1ydApAqusiZI5kyAmwwyUQZr%2FHbjlJWBU2fxZ5%2BPHRIiBhDEairOeIyZ7je2fKN7eERSdEqv6dHvnA7Jj%2FNky6pMN0I3gMr%2BD9bpfA4nULk0vOkiJV7xyh7Dohhbt5OScEGZHfl6n6hvC8KGbsPOIqmemMuKmMbgYDQBwW7B4dWxA%3D%3D%7Ctkp%3ABk9SR7SFhMSzYQ</t>
+          <t>https://www.ebay.com/itm/204209695620?epid=25045261595&amp;hash=item2f8bd8ab84:g:1KsAAOSwgYRjoyTA&amp;amdata=enc%3AAQAHAAAAkADhvOrmNwc4VdfNgtLzv1ydApAqusiZI5kyAmwwyUQZrBiLvCpVAEXcpRhphA3e0UrQ09NIfhsyQB1vm6cbhwn8Iyk7ccE8aWjTbbfkT6uxy%2FeD7HIOgtcxD5sqpgcANG0uYBup6gVrgOjXWMT%2B%2B4TfMb1JDLwIbSjLDnF%2BlcH3BWW1H88MioBPK699ZSduRQ%3D%3D%7Ctkp%3ABk9SR_CSksSzYQ</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -549,7 +550,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/195551657571?epid=17045661509&amp;hash=item2d87c97e63:g:gbAAAOSwNhJjvIfQ&amp;amdata=enc%3AAQAHAAAAkA9u1gYRkRj%2BOzTahFkRUHkkYx0cUtK9LAQrYLs9WVQzBGRp2GprBXwM0alzwKMR1u%2FhM7E2UmX7gx18qj1tZRuzcEi1MSxlYADW4Rd7QL1vK6y8BLiZbIuVGFxV7c4BiE7gFhWuPvDQKemLOkHaDq9ff%2Bq6cJ%2FWAS64MkX2UxUwsrmzcj7%2F7nLyTABcuVcQ4Q%3D%3D%7Ctkp%3ABk9SR7SFhMSzYQ</t>
+          <t>https://www.ebay.com/itm/195551657571?epid=17045661509&amp;hash=item2d87c97e63:g:gbAAAOSwNhJjvIfQ&amp;amdata=enc%3AAQAHAAAAkA9u1gYRkRj%2BOzTahFkRUHkkYx0cUtK9LAQrYLs9WVQzCvug4%2B4pN%2F1oqQV%2F%2FpIG83YIB7fFDVH0cIn7L78ONuIwcbsahUny9dIarkVToPLkCk%2FTgsfQki%2F%2BJHN%2BYBaFNA8erC7A2wKgZ7imR7RwLTA5CSyjpJxkcnYey1N%2FoNehw4hgP%2FDdo%2F8cpOikar%2FH0Q%3D%3D%7Ctkp%3ABk9SR_CSksSzYQ</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -598,7 +599,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/155339620118?hash=item242af67f16:g:4Q0AAOSwQB5jpZcv&amp;amdata=enc%3AAQAHAAAAoC1mDDb0rq2u0k5b2UUY9HOQXIpDKFekbOTX%2F6jMsj5imHBwhSaxhpXsse3OTfB85c%2FUYSQzjTfIvoqWkMpRwtpmB24hBwrz87jTaDWf9b6%2BQpzIx6V6DRYtaLSHKskvH6bMMe0I9mzEr6nEPS3y1Spn9lloDQXOgA3giAo4BrHWRGOw7onZfspQvbIEtsLMF0i%2BF1l9%2BfjspJBJTuajGDc%3D%7Ctkp%3ABk9SR7SFhMSzYQ</t>
+          <t>https://www.ebay.com/itm/155339620118?hash=item242af67f16:g:4Q0AAOSwQB5jpZcv&amp;amdata=enc%3AAQAHAAAAoC1mDDb0rq2u0k5b2UUY9HOQXIpDKFekbOTX%2F6jMsj5iupLjqwltl3wLtxrwZIk4c%2BQTcmAa5THUbUXs4rL70PDXym%2BsDN5TxZbicIPR4VuIacFwgHPlnDPO%2Bu1CMBtngGwpSQ29fY3GNgdfk96dYRCPV6%2FQaWOPrlof4ojOIEZYekn14dDVTjlkYwzSNEFT%2FGppHBPvi0x60sfK7ihOl%2F8%3D%7Ctkp%3ABk9SR_CSksSzYQ</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -632,7 +633,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>3h 44min restantes</t>
+          <t>3h 42min restantes</t>
         </is>
       </c>
     </row>
@@ -718,7 +719,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/125660284034?hash=item1d41efc482:g:xrIAAOSwnLdjlvev&amp;amdata=enc%3AAQAHAAAAoOQYxb%2Fm%2B9XyiBsAOs%2BtTmgJ5B9b5nobAKJKGfTZ4SNx%2BP9ZXjdsNPA7R3giupXVpUjfJTrB0AxrDe5KR2XvgyqsY78kbymDpAHL01TzXNat4kTv5Q8PxdLX9bUnttUOjDPRJSG1LcqeAJb4uBazkGeXqN%2BILEUGG01WdpMmhMSDd%2BApUQYKTfHbwgV9fxlcds6MnxJnKXJqeFu85UI4AS8%3D%7Ctkp%3ABk9SR5SYhMSzYQ</t>
+          <t>https://www.ebay.com/itm/125660284034?hash=item1d41efc482:g:xrIAAOSwnLdjlvev&amp;amdata=enc%3AAQAHAAAAoOQYxb%2Fm%2B9XyiBsAOs%2BtTmgJ5B9b5nobAKJKGfTZ4SNxVT%2BkVEylZigvQugBeQetartqhvDdGxTubFpr3rdIoEBcaDQS8ZjP65NRA4hyV0ayck3%2BIZnRzaybORZIJ4c5ArCAvfw%2BuVJAcvm%2BzEQW5ngzhFaqjaIVMSShDSz2lTLz%2ByoeInitOMiREfgwH8DEQ%2BrI1fGCY9bU81OngL4nhv8%3D%7Ctkp%3ABk9SR9asksSzYQ</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -767,7 +768,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/234853117625?epid=23050214728&amp;hash=item36ae562eb9:g:7AUAAOSw3eljow8I&amp;amdata=enc%3AAQAHAAAAoEusb336wjGABj%2FCzmYQkkUAid2sSZ8SsjGz3hw1DnkwBmQ%2Bw1LpC%2BYKHtk7BtdGGMj3pFsB3hkhzGAE%2BXbp%2FJyYgJkgPQX2CxNBoN%2F7oEsP2RCuYnC18iUya1i0OxKLZUwJZ2NxiSEmEz%2FbhmIrDRwQ1DcT0S%2B3cCTY2z2A0JUlTzCW75hDuRniHKOENUs4NWU9F8VngYrs1BbpYg%2Bp2Yg%3D%7Ctkp%3ABk9SR5SYhMSzYQ</t>
+          <t>https://www.ebay.com/itm/234853117625?epid=23050214728&amp;hash=item36ae562eb9:g:7AUAAOSw3eljow8I&amp;amdata=enc%3AAQAHAAAAoEusb336wjGABj%2FCzmYQkkUAid2sSZ8SsjGz3hw1DnkwHZUFBu9yoFxbmku8kO2xtmaeQNoowmYuw0npWsf1YYtKbHxLtN8eSzPBcgBL3fNrQ5andDVvnXKPRsJVQ3xDX0n7uwsxM4SEgE5badSoN%2FpCnHkWIyZYeebMr1nY4WfWPNCnhV5tsUGAQkgetoJbsRqCsRi6naaz6TiuynJB%2B5A%3D%7Ctkp%3ABk9SR9asksSzYQ</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -816,7 +817,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/385163444573?epid=23050214728&amp;hash=item59ad87c15d:g:oFAAAOSw5yxjRIsG&amp;amdata=enc%3AAQAHAAAAoHHTmOg%2BoR3LtRCMXYQ8lAEEmjWes9DhmmiUWq2HMpjVXWYLo7rJgP9JY9AIK3Fq8WSz0AGtZ0jmV7HfEXPRQr8rfhQcgL2Usalk2qAlfRzL5adcwepADG1ZqDN8GfteUti9nqIgLmuOj9Q4vHQuIaYZ5psoGFpWP2Wwaz4skRla47%2B894NlY4nKLqtuFDj9%2B0Wvcxe715jQK4tNqQFGBLk%3D%7Ctkp%3ABk9SR5SYhMSzYQ</t>
+          <t>https://www.ebay.com/itm/385163444573?epid=23050214728&amp;hash=item59ad87c15d:g:oFAAAOSw5yxjRIsG&amp;amdata=enc%3AAQAHAAAAoHHTmOg%2BoR3LtRCMXYQ8lAEEmjWes9DhmmiUWq2HMpjVefc7kZa1lArApN2OgW1xYh0OCYpa%2FvmyFGyNE0fPbeKhAKuXOCrCO1jBvt4LyAI39SeTkbXZXzgb5iFex%2FWeqbePyz%2FC4teoAF56KiPFMNMZ83XpjKIp%2Bguq7pUUjsyJy3jV291L0ZKcM%2BjSbUv46LCs4jbK3vmaRh8re64LXlU%3D%7Ctkp%3ABk9SR9asksSzYQ</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -865,7 +866,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/185723538820?epid=4044603159&amp;hash=item2b3dfc4d84:g:ZhIAAOSwhC5jtFV~&amp;amdata=enc%3AAQAHAAAA4Iq3e8KvP9u%2FLd97C2qrT7RiIPQMRIkPo6XoBmN6mAJxqM4YgDIC9%2F9XAi6ONpY%2Fh500N9IvP80UtAVKMyaGlyb7B3B28IZ%2B%2BeJzU%2Fi0rYIfSxy3d5hreNH7yIEJ92huyA5iq7gvi1bog43chk2Xm3sT1PUXHml8MPl0hDWAfYYNJO14omAa65ZixCOFa6g89vT37f6rqb0sBZ3Zz0dE%2FWUZ%2FggQxGAwxLH44dZaU30DZBpPjbUFJvmsSV9tsxwQxYvKNYtpqa886FTeGZQu%2BPkeWJUC9hvVlSwKDiKIyocU%7Ctkp%3ABk9SR5SYhMSzYQ</t>
+          <t>https://www.ebay.com/itm/185723538820?epid=4044603159&amp;hash=item2b3dfc4d84:g:ZhIAAOSwhC5jtFV~&amp;amdata=enc%3AAQAHAAAA4Iq3e8KvP9u%2FLd97C2qrT7RiIPQMRIkPo6XoBmN6mAJxqM4YgDIC9%2F9XAi6ONpY%2Fh500N9IvP80UtAVKMyaGlyb7B3B28IZ%2B%2BeJzU%2Fi0rYIfSxy3d5hreNH7yIEJ92huyOmcUV4WKEjqmdyqfsYicPlIDE60IWbxJUOTHqt3341V%2BRLgn4owsBD5noBGVjiJsC%2FtWJcyPJdkJiPoDygFMJ8CMccit0MsYmmuMyCe07ib%2FKCOkXnbDZIA4eblcNhj%2FibQWVU896rp0cA13FTrgbIOcno%2BXn4U0sdnFuMrfZj2%7Ctkp%3ABk9SR9asksSzYQ</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -914,7 +915,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/185727524695?hash=item2b3e391f57:g:Mr0AAOSwoQZjuEcX&amp;amdata=enc%3AAQAHAAAAkCkRm1sKaeAHJ9NYqkaHRxDaVEoga6SEuGQoCEj%2BcAt6GSbAIT4QDR8ijcvPmh4qdgP3VPfFIK%2BNvM%2FWwb9bmTS6yb%2BVaNduv4UGfMBRLVQsqAxDdKettl0xrgDQQ2WS7O9PFmi9o1C8v6PpvKH0ARNA3ploJkJltBtzcAuqpW5VspALORN8gKBcxmX1vCRk3Q%3D%3D%7Ctkp%3ABk9SR5KYhMSzYQ</t>
+          <t>https://www.ebay.com/itm/185727524695?hash=item2b3e391f57:g:Mr0AAOSwoQZjuEcX&amp;amdata=enc%3AAQAHAAAAkCkRm1sKaeAHJ9NYqkaHRxDaVEoga6SEuGQoCEj%2BcAt6iGg12cOxFp7Vd69%2FFQvDu7fOPY%2F4Awkwg9owyWjzm0Ac%2FzdPggnNEi6Dg1StWCVBtSnNjCK5VVqQDM3V8NWob2gdI7NHibgVSApLGuAKOvE5qe9Ay%2FXT2SPYlMNLqA53XAszArXKyx7oKPmuO4LDAQ%3D%3D%7Ctkp%3ABk9SR9asksSzYQ</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -963,7 +964,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/185723529775?epid=28042949555&amp;hash=item2b3dfc2a2f:g:iroAAOSwNCdjtFg1&amp;amdata=enc%3AAQAHAAAAoMgpYZj1loMLdDjG7J4%2BKMOe0HQpcnGFXlv%2FzcK2EUmFuHI11O1S%2FOY6OFY0IKOzaV7H0kZBAuhGz2E92lkO63RNVifrJykoZOOt70msmoVMxtB4mEG2nY3wxgyrXX0UvHgV3EmhUzcqXV54UoOw8BPecuDftiiw0l0EEdfPF5GBZR0bEG0k6S2D66s60KCVWP3VM31zjbIUsvVWHBBS0xw%3D%7Ctkp%3ABk9SR5SYhMSzYQ</t>
+          <t>https://www.ebay.com/itm/185723529775?epid=28042949555&amp;hash=item2b3dfc2a2f:g:iroAAOSwNCdjtFg1&amp;amdata=enc%3AAQAHAAAAoMgpYZj1loMLdDjG7J4%2BKMOe0HQpcnGFXlv%2FzcK2EUmFvdaBR9mFJMAa7tJ8Za5wgU1IbNf3CWmeuhpqAqTfeL6W256JxC8%2FcKxODoxe0fuH4VtF6rMT%2F3WdzWohpVl4gbvU%2FnKtBAGVZ9fUTtKZAhf%2BiSiZSPDKkAdsZ0rtT3bqsnIMr8d4JKhUQ%2FD2EQCZU6DBRo4b3iV3gmZixsQ4yhA%3D%7Ctkp%3ABk9SR9asksSzYQ</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -997,7 +998,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>1h 21min restantes</t>
+          <t>1h 19min restantes</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1084,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/125660284034?hash=item1d41efc482:g:xrIAAOSwnLdjlvev&amp;amdata=enc%3AAQAHAAAAoOQYxb%2Fm%2B9XyiBsAOs%2BtTmgJ5B9b5nobAKJKGfTZ4SNxDMMGuRlXwpqf%2FnrQXyIhWqDE1qCuogN%2BkzspugZLx9l29pghtp%2Bno8Z6OEzkwd8oj0HFNhoJ7OQodEKPw%2FXO5FmowIRt%2Bp9o4hA4E7JgSwr86sCBvXJKAoFf68OUc%2FirBV%2Bi2qs1wPwDTVUHIpRH0QbGo2jZ0neS8YZaH2Bwv1E%3D%7Ctkp%3ABk9SR8iohMSzYQ</t>
+          <t>https://www.ebay.com/itm/125660284034?hash=item1d41efc482:g:xrIAAOSwnLdjlvev&amp;amdata=enc%3AAQAHAAAAoOQYxb%2Fm%2B9XyiBsAOs%2BtTmgJ5B9b5nobAKJKGfTZ4SNxwikSaPKk5KRDXm2k8rqS3RZ9Qe3kLpr40M5q8GHrSTGraXcmYUbz8M3QL0riPEeUDIWcRHxNyFrx8I%2BrRUOD61iyzTG47kGtlBso21qZyPcPxKQVFWcaWz0hObEUrGan0xTRZTr%2BIGgIjSEc2ogrgpJv7LarrbqV12lGMWHkCUw%3D%7Ctkp%3ABk9SR-zAksSzYQ</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -1132,7 +1133,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/144887738494?hash=item21bbfb707e:g:5lkAAOSwPjVjtupK&amp;amdata=enc%3AAQAHAAAA4JmUECAI3qbKOmkzqUk4%2Ffp44J3yt%2FuqBvGTm0ezYZ7ImDSCZcBPnj4QGetu3ryqRd8s9hia0ESgUN88Qi3H0ql1d3EKjQAnlWhRC3t7rx3ZSTBt9OUapOA%2FO%2B9GxGHC4LgrRtBWHUQwZoFfMLsF8rGk5rCqY8j40F91vMaMy%2F98y%2F9T8Vg11AFKSM0hJ87NCeovZLrLaNyLAgosEi3wu5%2BvOiSwcAC8oc3Q%2BtNtsUG2zNpZEKAL1iloWayIvIDC%2B4veee0qQNxtnayi9I3d9qHFZxEQ%2BbaxAEyhpiYS1wbe%7Ctkp%3ABFBMyKiExLNh</t>
+          <t>https://www.ebay.com/itm/144887738494?hash=item21bbfb707e:g:5lkAAOSwPjVjtupK&amp;amdata=enc%3AAQAHAAAA4JmUECAI3qbKOmkzqUk4%2Ffp44J3yt%2FuqBvGTm0ezYZ7ImDSCZcBPnj4QGetu3ryqRd8s9hia0ESgUN88Qi3H0ql1d3EKjQAnlWhRC3t7rx3ZSTBt9OUapOA%2FO%2B9GxGHC4GwPFOD%2FW7oBx9Up7JmOkacMkk%2BpwxNFqGh3BCmItUm4l%2B8jN4TrK%2BD2JeP7A02tDlnOy6ZtoVEudlr2%2FQaHEHqhTS8kuMnckZILitVrNqgdwZ%2B9%2BVIWTxmi%2BO2hO51feyU3Hb4351xTk8OZjtUluCu2EZIBHn1CyQ3OnAWN6I1B%7Ctkp%3ABFBM7MCSxLNh</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -1181,7 +1182,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/385335233167?epid=17043532739&amp;hash=item59b7c50a8f:g:b1MAAOSwn35jt2Zz&amp;amdata=enc%3AAQAHAAAAoD%2BmQEMtmcLhirBscbhw%2FZZ8m5Po4wTOY9JKOjDfscAfSdhG0La0P08H51hKoHhadvNQtyef7jB6TPijZh%2FN67w4cDIWALv1TXzin6yapnL%2BNdEN8Lv5NzzNZC17HqFNouPQ1hpwI7%2BB01Muj2sdcDAXcq57KNYWDO6YyJXuFzI3ZylZJUfFoY3NsGVha6ULoSe4guxIn06XWuZ8A%2B8V5Io%3D%7Ctkp%3ABk9SR8iohMSzYQ</t>
+          <t>https://www.ebay.com/itm/385335233167?epid=17043532739&amp;hash=item59b7c50a8f:g:b1MAAOSwn35jt2Zz&amp;amdata=enc%3AAQAHAAAAoD%2BmQEMtmcLhirBscbhw%2FZZ8m5Po4wTOY9JKOjDfscAf9i7eMKxLIreJwIz4zfPv28mwjOYL1pC85MokQZOlz57E7ljSEtVSUmi8hwLrW7K3PwywonBrZKNR2uQAZL4D9M9CY2eJmvPJTOoM5btBib%2Fj93ZW3hwCHz1yfokjwzGGz8LY1ogJOqE25x49AbbcjGd4FyNyWC59MaUxxLfsuAE%3D%7Ctkp%3ABk9SR-zAksSzYQ</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1301,7 +1302,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/125683754174?epid=15031199219&amp;hash=item1d4355e4be:g:774AAOSwggVjURc8&amp;amdata=enc%3AAQAHAAAAoFFKOZO1wYhFszaabh9u3Tku%2FkrSJOX8dgnxWwuO%2B%2BYGVuFw09e%2BHQ%2FyE0xWes8nFFCAtdmU09MTn2ZZ7fSyAtxALDmuy0sBHZG9g85eBBXT87Hmot6koPiXJqMQXyCpwhALTANhlOy7d9HIxpaE0IhV1pYO0Eyhbq56ULfyM3HrZHXrp2r3yohbY44xXhaMlPr4SjsubYXetabzRkGk8aw%3D%7Ctkp%3ABk9SR6S6hMSzYQ</t>
+          <t>https://www.ebay.com/itm/125683754174?epid=15031199219&amp;hash=item1d4355e4be:g:774AAOSwggVjURc8&amp;amdata=enc%3AAQAHAAAAoFFKOZO1wYhFszaabh9u3Tku%2FkrSJOX8dgnxWwuO%2B%2BYGHQwfzj5F9Pea9iVLxJw30IxQxXqqyQI9WiMtkAR3E7BsTOWC1kTnIV3x0eXxMd1fR7DIF9DXe6WJo7T1p5g8o11vE2qHJgQk6%2Bl%2FDPQ%2F0H0QvLNXXvGW%2FiD4%2Fpx4Xd5rGgvDuwHdPl4EmcrUQvlfKS7npBNugnbvZKv89PNny9E%3D%7Ctkp%3ABk9SR-bQksSzYQ</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -1350,7 +1351,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/255919459353?hash=item3b95fd0c19:g:QAcAAOSwOY1jvCl2&amp;amdata=enc%3AAQAHAAAAoAMLj4INzBDZ4PC0zZ%2F9aboYREGyOursdQJH5nM%2B7ujwp4oN8nS%2BFP3Ix3iblQt9J24OnqVi%2FLxRuaP2a72hGkuYQRulGfie7oaYu1c1rejP%2B4C3zUyzxYZlnl6WdF%2BGnvQ2fO6rMTfVyhbkDc3hhu4pysaaUd5S9Uvy66zUnD%2FNy2498TUN6UadyNbThptU8yctN3swP0xt%2F2D21lsk4Sc%3D%7Ctkp%3ABk9SR6K6hMSzYQ</t>
+          <t>https://www.ebay.com/itm/255919459353?hash=item3b95fd0c19:g:QAcAAOSwOY1jvCl2&amp;amdata=enc%3AAQAHAAAAoAMLj4INzBDZ4PC0zZ%2F9aboYREGyOursdQJH5nM%2B7ujwEZ9OZLxiN07XeZNdF2r5N8YTeyBmB6Mh8qzjgzj1E%2Bqf4wTHzZBOotxixHNVR8YwdIhPMiyChT0COUUrl2LRQirZLKku3RGECm29qEEmkMU5KZBzfOxKW0X%2BSaXjGa8U6DjLLlfvxt1H%2Bcsfzh61GjltMXd4qqrw4YlWlhdYCgY%3D%7Ctkp%3ABk9SR-TQksSzYQ</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -1399,7 +1400,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/134377664893?hash=item1f4988717d:g:6WAAAOSwW5ljo3qc&amp;amdata=enc%3AAQAHAAAAoLop9I%2FfOqmWLQEvqnJhxpP6HFNHFYBWcMQYvvSKLkU7u3oOzT9gG5JLlBe1WEvVu4ltRrrYky7PVVfwjQ%2FxeKakuxxapHYepU4QbbYgwrlLYp9V9xXMvQANVZanqaY1uCV4zo%2BDjmv4A4AIowa8P3vGnEEY4d80QaiSZ7xINurXkhWPNsx5pFNMyqFCTVfz23Mr3NF8VRhVGImJ0VURAcE%3D%7Ctkp%3ABk9SR6S6hMSzYQ</t>
+          <t>https://www.ebay.com/itm/134377664893?hash=item1f4988717d:g:6WAAAOSwW5ljo3qc&amp;amdata=enc%3AAQAHAAAAoLop9I%2FfOqmWLQEvqnJhxpP6HFNHFYBWcMQYvvSKLkU7phJwXzJ2ymRHt9brhSDz9Yk9mt8UtvCy20IxykFQlkLurBidGPVm%2FmsD6klv8A6HiCJr1EdHAktfiZ0JsfU3Mfdn%2FqYjyCw19b1MTBhgZ5qRtbjjqvUVHbXSXgNi1PRu0NSU%2FVrbTxObzJRdHbg0vnIOvNOUF7VNnNNBv%2Bwxz4E%3D%7Ctkp%3ABk9SR-bQksSzYQ</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1448,7 +1449,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/195551437921?epid=2311785619&amp;hash=item2d87c62461:g:QRAAAOSw1uljr6Js&amp;amdata=enc%3AAQAHAAAAoIxTpYSboDmIfVGhoT5X6KVAVyH6kfwoIRFuVmonFSd2QWPGYzUDOXd%2Bq6raDuUM8spKQrOSiOMOY%2FLuReXgxfoBYCs0S%2BhBVjAt7bEvvfEJsrLIkk5aDvQy7K4T%2BuoSkJASmG2wtbKhozpv1GDjrN4TBnEofg%2BKnPk%2B8xlp7VRi4HWSJo%2FqLevL4Bic9xIrd5Dvgy9JXJwc3vx7Drd8rOk%3D%7Ctkp%3ABk9SR6S6hMSzYQ</t>
+          <t>https://www.ebay.com/itm/195551437921?epid=2311785619&amp;hash=item2d87c62461:g:QRAAAOSw1uljr6Js&amp;amdata=enc%3AAQAHAAAAoIxTpYSboDmIfVGhoT5X6KVAVyH6kfwoIRFuVmonFSd2RZmPkqpAapSrv2aEcgXbjgBMjWGZIxka%2BZEbEgH%2BnfsOTv4TxJi6jV2FtQLhOE1YazV0qblQCkUKXxBBw1webP%2FdP%2BCUnzIKK5OlqWTBW1tuuUv6w5khE%2B2i%2FkcylQsdRSNqca2Q5cDDJP%2BsYLzxz8%2FT5%2Bxcp4BlBkF3QDVw27w%3D%7Ctkp%3ABk9SR-bQksSzYQ</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1497,7 +1498,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/374443632490?epid=3052104119&amp;hash=item572e94676a:g:98EAAOSw0wdjtai-&amp;amdata=enc%3AAQAHAAAAoNn65XK6g6riGHQD2fPWNRFcnhqUXABe7WDG54i1b4bRmA3BMZfV8cVoGuQzWmmeQFz1Ij7UKDFkC0yEesoY7E7HxTStPYHUtbtikCZhD3PuIROuZcendqMFa3Q%2BxKvEzZW39KbYyY%2FqOf3WiJ11oy7GZSjZHGC8E8pr7dyeDblPkoeTmeHjCEuN3hZA3QnyeFAkHVahrTClDYPSsHGykyg%3D%7Ctkp%3ABk9SR6S6hMSzYQ</t>
+          <t>https://www.ebay.com/itm/374443632490?epid=3052104119&amp;hash=item572e94676a:g:98EAAOSw0wdjtai-&amp;amdata=enc%3AAQAHAAAAoNn65XK6g6riGHQD2fPWNRFcnhqUXABe7WDG54i1b4bRIKTT0itb2en7M4Iha3I0Qb%2Ffp33pTaXq5CNWRFrOdGXDkYExi1uaTCtAZ3v%2F6x2RrqeWbVYztVMFZFVDnma32k3%2B0GAsXLCF72YvxyTJDvzob2nD9sYW%2FOM6uwQPLXxWbTe0SbslzpsPzr%2FsLrhSTTe6oOUxol9ZyS0LDWLpmFQ%3D%7Ctkp%3ABk9SR-bQksSzYQ</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1546,7 +1547,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/115663932840?epid=12047868631&amp;hash=item1aee1b8da8:g:cSYAAOSwd2Bjg4Ij&amp;amdata=enc%3AAQAHAAAA4KBS4eEACEkjLpGtdfgf52U6SOGGCN9pDDP8hZG1yVa0OF7vy8aO5ENiGsMh296hatUCrpMepldB6K1akjoA4C7HZ9%2BB33vrzIYASG5vbv7JGjWPMAUDTNn%2FLlkM2zY2SsetfrJncVBPBDZwMGqb3UcZAECHHRIMNXv6TOb7NPPca%2FRTc%2BWMBD%2Bz%2FITpzK3lpCmOYzMIYUUHf%2BbAinQatp%2BJMO2q4Ceoh9Vw%2B33B3RQHlgaeSQPzydeMmIOkTwwChydnwqWLHDdOpmv2JxBHtr09D4CKJ0ZmPTsqMHsV%2FJ5c%7Ctkp%3ABk9SR6S6hMSzYQ</t>
+          <t>https://www.ebay.com/itm/115663932840?epid=12047868631&amp;hash=item1aee1b8da8:g:cSYAAOSwd2Bjg4Ij&amp;amdata=enc%3AAQAHAAAA4KBS4eEACEkjLpGtdfgf52U6SOGGCN9pDDP8hZG1yVa0OF7vy8aO5ENiGsMh296hatUCrpMepldB6K1akjoA4C7HZ9%2BB33vrzIYASG5vbv7JGjWPMAUDTNn%2FLlkM2zY2SgLer9b8xAglFkKRoprOo1t1qSYxApOGdNcUb4KbdMr1uYPssCaKo336%2B7CLvWAHtmEd0e1jVtTxWhss4qyjwVcgZpNQkaPbQ9nZd489KEQSJYdbb%2B2jHpB8%2B2YxmfxEj4DH91c8cCSo%2BtD9mZ913KHLZh8d7p1cCRybArUmvsRh%7Ctkp%3ABk9SR-bQksSzYQ</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1595,7 +1596,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/115667728730?hash=item1aee55795a:g:OeYAAOSwcvpju~~Q&amp;amdata=enc%3AAQAHAAAAoIXJjxMzYIGechT%2FdV3kxNiSR6lCTIUuKB9aIv%2BV5yvGlPZ%2BzW1ApHXTo%2FRweoSff8ZJ%2FlkJ3HTyPh46uulYLhXKmDMhwQFH1wM1SGjds5jPDaIFR%2F6mEYGIb8chvECzK1X42eMhHgKhPZttYZ6tW3AqoYf3Reqvf5GXxoBzffVMO0D7tF0ZReP974p9V5ApuXMemfTkSFaXOO92ouxjtd8%3D%7Ctkp%3ABk9SR6S6hMSzYQ</t>
+          <t>https://www.ebay.com/itm/115667728730?hash=item1aee55795a:g:OeYAAOSwcvpju~~Q&amp;amdata=enc%3AAQAHAAAAoIXJjxMzYIGechT%2FdV3kxNiSR6lCTIUuKB9aIv%2BV5yvGSParUcQ1ZXb6gkkPzi%2Fvfopb0ESzL%2FqiuVK3QvXfw8hX%2B5v80wCbedj%2Bx1qkA90fOPjpVAjtmUKSCOQcHr%2F5wm2WwP%2BOZ9wVPSEDPSLxk72tthFPzakSsGYpShQO9wgdYgW3hJ1Hn1f910oBX97GyTx5zjqLcHjPzD%2FOhLdc0H4%3D%7Ctkp%3ABk9SR-bQksSzYQ</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1644,7 +1645,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/185728776685?epid=26040753386&amp;hash=item2b3e4c39ed:g:azQAAOSwWxhjnY5A&amp;amdata=enc%3AAQAHAAAA4FzwapalTmcKb75FEpcLWa4j2CwLtIknCZc58LZ%2Fa6jVo%2FNvfVPSXhIBShk9mAmOTxqgr%2Fb7FqJGyUpLSHfp5SbrLbMcGRBAJqfLeVF29yKz3ijqHsLfCsgP2JvQN%2FWPdIKXx9uGm1jk%2B8ZSMXZF0WRs9tJT%2B7dj2lXoeDrIMUwxMmWny2TT0zdaGI4aeSxui7PGufSmLvXyzbsFX7Y92vGuwILcMlxLb4lJ87RRpAJpwoXYvJ4p7Y7jzKjx6TakDd0W09Y%2BUAWCuh6FqOMzivPEQ5fAKK7O5Oxf7E6rxyM6%7Ctkp%3ABk9SR6S6hMSzYQ</t>
+          <t>https://www.ebay.com/itm/185728776685?epid=26040753386&amp;hash=item2b3e4c39ed:g:azQAAOSwWxhjnY5A&amp;amdata=enc%3AAQAHAAAA4FzwapalTmcKb75FEpcLWa4j2CwLtIknCZc58LZ%2Fa6jVo%2FNvfVPSXhIBShk9mAmOTxqgr%2Fb7FqJGyUpLSHfp5SbrLbMcGRBAJqfLeVF29yKz3ijqHsLfCsgP2JvQN%2FWPdBGCxjLB4eWIjFY3FLrZhpYvKKBnVidSpzYWnbFsbZQbpYUoHczf43H05J4hacZVLBYAlvPpAsRzhIqwUzNwtJ1EIyS8czb1OBL1LVQs2XIFVH6mRhZhYAvK%2FnYO%2BstP9M4vrFQtRQPljyxceSDe3%2F22GZTz%2BFddZVuarinLktDd%7Ctkp%3ABk9SR-bQksSzYQ</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1693,7 +1694,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/185726242390?epid=19040743289&amp;hash=item2b3e258e56:g:SEwAAOSwqYxjnaAp&amp;amdata=enc%3AAQAHAAAA4C5Sgl%2B5TVTt9lCAinCczH7BxVvhfGdpNTiZ7Od2WElk8cEhpRATzUdMBrXKcQ9fxufEauWAILzuNeVpHmMpzq1sr1ryM0OZcMrOcEPBqsR%2FKNMQ2NIwx4g1zKZwzhhfjMvmgIexM8EwI%2BFOhYGskg6Wmr9Z91knvcYz01aQe1AXsTpDT%2FssRcAfN30iMV2tHvPKNNpXIJShMXg%2Bkd0ZdMr%2FZPF8xH85s0rztYSgy4%2FV%2FATy5AqRfaC7WzTt4mom86Llsw4TnO4t7LOMGynMpj1MGS8TL2dqXqSgz2SI7IoQ%7Ctkp%3ABk9SR6S6hMSzYQ</t>
+          <t>https://www.ebay.com/itm/185726242390?epid=19040743289&amp;hash=item2b3e258e56:g:SEwAAOSwqYxjnaAp&amp;amdata=enc%3AAQAHAAAA4C5Sgl%2B5TVTt9lCAinCczH7BxVvhfGdpNTiZ7Od2WElk8cEhpRATzUdMBrXKcQ9fxufEauWAILzuNeVpHmMpzq1sr1ryM0OZcMrOcEPBqsR%2FKNMQ2NIwx4g1zKZwzhhfjKq5YMHiUPjZsS%2B6C1HpdtpqlwtFvT3vH%2B6uUapELqdqjLOhoBxjoe8iOvtoC8P2Xmd%2BJFw%2Bo3k%2F1o7EmXS8F%2BNmHqy762fv%2Bn%2B7j820HLBXvcXq9S86UnLwdtyO3Hh%2Bp2TqmZnb5ydnxiB4FXq9HytnGBqc2chBFFqb10b2cPNE%7Ctkp%3ABk9SR-bQksSzYQ</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1742,7 +1743,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/204208847494?epid=14047875131&amp;hash=item2f8bcbba86:g:3-IAAOSwWENjuc8H&amp;amdata=enc%3AAQAHAAAAoNQ%2BjQg%2FPLd21AkAQfLahBs34UTRvil4CA4vpsjFTgnjUAcujjibGKS0AtD9uA%2BJTDu2Ulf2MI6rJZfsklZanpg9DRofQwa%2BGndRjzbr6etxVqlV0Rv1Tbg6frIbLt5OyOAqUjbvOUSzBd2vWm%2BeQola52S0NEVBOBpeog%2BuM%2FF%2B%2FfFCbHrGJrRiy63o0ZPVmcaC2VU0vS1TtryFxvLg7FI%3D%7Ctkp%3ABk9SR6S6hMSzYQ</t>
+          <t>https://www.ebay.com/itm/204208847494?epid=14047875131&amp;hash=item2f8bcbba86:g:3-IAAOSwWENjuc8H&amp;amdata=enc%3AAQAHAAAAoNQ%2BjQg%2FPLd21AkAQfLahBs34UTRvil4CA4vpsjFTgnjjtzbolNbVpE8yvolTI2%2BXD%2FOHf70h9Wm8F4f7d0k69q%2BSFJ1Hy1RG1sl716X86Go2Ovgn0vjTjxV4VV3GMZzumh3Td4V07W6Q6tS10n2M4d2nW48byKco7P2T%2FlF5xci04A%2B8emtvJVutS5nIW8e1XtAib3GUVvZ%2F0XS4RiJYE8%3D%7Ctkp%3ABk9SR-bQksSzYQ</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1791,7 +1792,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/115661774028?epid=4040934334&amp;hash=item1aedfa9ccc:g:g3QAAOSw3aFjgA7f&amp;amdata=enc%3AAQAHAAAAoBCDIG1X26u1%2FplnsHBtCD%2BV9vMd8dbo8Nvh8zsLl5Lv%2FcQpk3WhHdKeJsJuJrveTVcF95jt0Om1%2FY9r5jGXiePP0Z3LR0wCqioN4tAssV9fRwkd97cTz9NbVSg4v4%2BZAI5NGQ4BQb2glCtpay0lsODZYzr4FWy6%2Fw4t8XiM3pdbOmOHxpGPH2V5zjNDvAK2PGQEi9CqnIpvpzX8HJMB%2FN0%3D%7Ctkp%3ABk9SR6S6hMSzYQ</t>
+          <t>https://www.ebay.com/itm/115661774028?epid=4040934334&amp;hash=item1aedfa9ccc:g:g3QAAOSw3aFjgA7f&amp;amdata=enc%3AAQAHAAAAoBCDIG1X26u1%2FplnsHBtCD%2BV9vMd8dbo8Nvh8zsLl5LvDPZOktQBCXMyk%2BNg7GemFAONUmMCB8Nd%2BvwYSpyRgr179%2F%2Ftx3ot%2B3115Rh0muIH9greQbxnNQ6%2FKkgYIIj%2Fb4k%2Fx%2Bwls%2F99ErUxuv8wZFlZC%2F2bV7iPx6ghcsG%2FRQcDpANEP3pYQvkW5svnAswQN66XLfulC6JmT%2Bkg%2Ftc2RL0%3D%7Ctkp%3ABk9SR-bQksSzYQ</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1825,7 +1826,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>2h 41min restantes</t>
+          <t>2h 39min restantes</t>
         </is>
       </c>
     </row>
@@ -1840,7 +1841,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/185723573967?epid=5041892846&amp;hash=item2b3dfcd6cf:g:ip4AAOSwDwBjnYi0&amp;amdata=enc%3AAQAHAAAA4JwNxbXsxdYz3ueTnJYd24m72YacC2GsWpkLmj%2FaVnncZYmEfkCKWucue0intF7uAGhEVlY9TnM7rHSa5UKDCYeL%2BUMDhUrkV5t2IGJQYmeQ2XvOEXnq0zw6eWs79GDnGrZs9qqeSlNOn3qRBja%2FX4Cd8LtRcYYZctCCws46ByNeUJWRXMx9rygo76gJV4HzpSflNP13lgkD9zx7MxOJxhnbfK71sY1ONaf0V667jGc4n30RAT%2BD4VUdm%2BRqoYmerAOUS1GFHPwAdX0Lrr534Wsi48MMVtY6dBfTIO4uTreA%7Ctkp%3ABk9SR6S6hMSzYQ</t>
+          <t>https://www.ebay.com/itm/185723573967?epid=5041892846&amp;hash=item2b3dfcd6cf:g:ip4AAOSwDwBjnYi0&amp;amdata=enc%3AAQAHAAAA4JwNxbXsxdYz3ueTnJYd24m72YacC2GsWpkLmj%2FaVnncZYmEfkCKWucue0intF7uAGhEVlY9TnM7rHSa5UKDCYeL%2BUMDhUrkV5t2IGJQYmeQ2XvOEXnq0zw6eWs79GDnGrGGrTDTANvMhuOCCpjxI8Twuvyws1g21lVpE76NM9SjTWxj2ZWwo3VSkBF4kV9VwX1Y1tCMksWf2Q3MvL%2FFw46YCeWMbRB23Pl58yemmb5ZOIZBnBzTYdouhUIttJVN1EBCB6tnxWu%2FootnTjlB8gNEMz%2BzijNLzBOIw1w7kE9i%7Ctkp%3ABk9SR-bQksSzYQ</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1874,7 +1875,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>2h 4min restantes</t>
+          <t>2h 2min restantes</t>
         </is>
       </c>
     </row>
@@ -1889,7 +1890,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/185729646661?epid=21041884952&amp;hash=item2b3e598045:g:zVEAAOSwaDNjnZ-V&amp;amdata=enc%3AAQAHAAAA4AoR07%2FRyj4VZhzvPa7TCOQ1rRAepYTJYBYCqWwizS4z8ZO5yrz2zFYzm%2Fs2UM3JR1HC3YRAyHFEQw6gNMQhCq0NqAii%2FHITUClPq6fcuieRkW4ZPIGe6KCsJPO%2F9JxSMGSWzeah%2Fd09MnFYD2RMslwY1LeM6yxU1BUDMbTIzZjVVN4Kli68yAtTG%2FnLtdlINUZVXHWCzaiRlQulwHUgGkqGJaBu%2B2ryWdX%2FGEcs%2Bq3qhXJdND45tA5TQyq1G5QV0qm%2BCo8KiVB7xGKr8omU5ApxA2bfge7vkaoNs5SDdEuE%7Ctkp%3ABk9SR6S6hMSzYQ</t>
+          <t>https://www.ebay.com/itm/185729646661?epid=21041884952&amp;hash=item2b3e598045:g:zVEAAOSwaDNjnZ-V&amp;amdata=enc%3AAQAHAAAA4AoR07%2FRyj4VZhzvPa7TCOQ1rRAepYTJYBYCqWwizS4z8ZO5yrz2zFYzm%2Fs2UM3JR1HC3YRAyHFEQw6gNMQhCq0NqAii%2FHITUClPq6fcuieRkW4ZPIGe6KCsJPO%2F9JxSMNG6ncca4DMNIFNU%2FfGwwzVdNwfXJRT3nUtKN0YVmCaFwAmEYtz%2BdPaQTx7R%2BQ3M5nKy%2FOQYqxKmTZnvwaW6d3UgRYnLtzMVlSwOC2HU266akJsgMFo1NP2QFYO%2BGeQYJpmRUCYu1PB%2Bj%2FLaNWra8kz%2B9aqULJS7Au4Wjzol1cR5%7Ctkp%3ABk9SR-bQksSzYQ</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1938,7 +1939,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/325484802883?hash=item4bc867f343:g:piYAAOSw549jsw1m&amp;amdata=enc%3AAQAHAAAAoEz8fUpuWZr2GGuJWaFB93W%2FRpT6keO%2BUdo09Qwplr517FiJFmX7dWHIWmXAtlsWFzUw1RxuW%2BXbf%2BFF7jsdn8C6UlwKsfWmi%2BnB0kHkArvI%2FXjXPwetrlouaqzJZjHilxyoJd7XMI8OPZqndVhzsc2EkKIE9s8NEcRi7qLqdkqjODz5n9KpaeHGDe9BMZMz1X8RoviYQ0mQL90Vh%2Fl%2BrEc%3D%7Ctkp%3ABk9SR6S6hMSzYQ</t>
+          <t>https://www.ebay.com/itm/325484802883?hash=item4bc867f343:g:piYAAOSw549jsw1m&amp;amdata=enc%3AAQAHAAAAoEz8fUpuWZr2GGuJWaFB93W%2FRpT6keO%2BUdo09Qwplr51YtQdQzyGFQn8N%2BSroT9zwlDVIuKZD1S9JpK08L8WDAGrullUNelv6xpJKPKELQldbCA6iruILLvdAJoJrIXw%2ByOyFg47oi8iULQ9r1O7CU6JwVAYLtwZcQUSjca2b9tsycISjeFM1LE0IOPsssrsJEGFNttyUMar0rnUv37TT68%3D%7Ctkp%3ABk9SR-bQksSzYQ</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -2058,7 +2059,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/363836587410?hash=item54b659bd92:g:PrQAAOSwg4FifTQN&amp;amdata=enc%3AAQAHAAAAoP%2Bh9WBZI7az4BCzYtA0ngwapwSB%2F4Zt8uENEZX8LgZiQA3WHHYeQNtNccw5rHIq9fWnU8HypMn07qIoKbmWN2JqOClQh0ZgOZKk0rLMR0EdCdg0qnlZygMcLyJyuEfikioVeiho8o%2FrdgVz1DpoBoGY7ka9uPEIJnQJFOo23P8Dx3r2JdecmbHY8vHgoUDNL03bZjqqG0ANSShKu4FG4hk%3D%7Ctkp%3ABk9SR4jhhMSzYQ</t>
+          <t>https://www.ebay.com/itm/363836587410?hash=item54b659bd92:g:PrQAAOSwg4FifTQN&amp;amdata=enc%3AAQAHAAAAoP%2Bh9WBZI7az4BCzYtA0ngwapwSB%2F4Zt8uENEZX8LgZiHfWATjfrdJOQmJDagSj4ddnjirOqETPlryMNbiY8eprCqOu9TPsQgOzm8MTIEDAzoLMWMjC7l%2BcFq5WbxFCutKLfxTiIY793uk9cjSDNagktxR2NU3AtWYsUaw%2FVLZvKmk8Mc5pM84EZ64DAHwU%2F9UkeBImJNGcbDoZWJjelNt4%3D%7Ctkp%3ABk9SR8L1ksSzYQ</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -2107,7 +2108,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/404097140163?hash=item5e161105c3:g:6T0AAOSwG9tjuw2c&amp;amdata=enc%3AAQAHAAAAoGcWjz8pJGvRZGlKilcruVZA%2FkwjxSfgCvotBWgVAk9YBbCIo9vg8UTpdKzODE1Hu6jiehM96ekZi%2F9gFwkVnC6npnTvUm5qWDdUOUmomR3buozYAGwDoot1pjXOJi48%2BeYoQqyNsVtM4Z4z2nMzm3DUcxe8Jy%2FioQzJuWkdsIZ3xZ0D1qouSONQvC0tDXwxLhoIv4rBzWmvAPeejqdPvHk%3D%7Ctkp%3ABk9SR4bhhMSzYQ</t>
+          <t>https://www.ebay.com/itm/404097140163?hash=item5e161105c3:g:6T0AAOSwG9tjuw2c&amp;amdata=enc%3AAQAHAAAAoGcWjz8pJGvRZGlKilcruVZA%2FkwjxSfgCvotBWgVAk9YeQ1IyfCpmvir%2BXV2ZD9v8lvOPkbGc80XmyNqC9%2BwQ9CB4tH31sjtQjxnR9ENTdoYsp%2BTEI2xoqFtO7xLIq4SLfJZviGWYMfPZgtQB%2Fyiu205AAqpv%2B%2F6EjeYnOupbj477lJMqLC%2BnRQn8WnrF9mxYfkQDwXVnDp9KA4nPuo2hWc%3D%7Ctkp%3ABk9SR8D1ksSzYQ</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -2156,7 +2157,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/304764386018?epid=23044081986&amp;hash=item46f55f7ae2:g:4OcAAOSwDoZjuuOp&amp;amdata=enc%3AAQAHAAAAoJ20uEAomBrRiogmRg%2F3HV%2BqZiOpyvDEOm2YrtT%2BQDR6Hbb6NpYUmF%2BeAMwPsV4L%2BvonX%2FhbDPk1TbD8MR0RLaBCGrpHZV8GQ4r%2Bs2hrOm%2FMaRsmUCVysesWcOjHwigY%2Fjd%2BWTFDbvnAT1LsvGBHIfz8GZqBhPqMqYZgG%2Bl0neRfMDzqS7ES6Jr2de82EJndKVBhBhrsy9JPinaj%2BKeRgy4%3D%7Ctkp%3ABk9SR4jhhMSzYQ</t>
+          <t>https://www.ebay.com/itm/304764386018?epid=23044081986&amp;hash=item46f55f7ae2:g:4OcAAOSwDoZjuuOp&amp;amdata=enc%3AAQAHAAAAoJ20uEAomBrRiogmRg%2F3HV%2BqZiOpyvDEOm2YrtT%2BQDR6DpGXZiuIP8m26UxWYnbwnosm7AlkW7msRjdxWt3Q%2B074yCTd5KiTGSIzRyQOJ7%2FZ1FpmFAr6jn5l%2B8fWe6H7MtbFpy8w6DiMBTxB9LtFpzNfUsb%2BrCyz0lOMX%2FuD8s2Z6XZTcr%2BFyHpt7%2Bt3dRVF5Og4vxdcrLBSFVevJoOFkiM%3D%7Ctkp%3ABk9SR8D1ksSzYQ</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -2205,7 +2206,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/185728524791?epid=5040752558&amp;hash=item2b3e4861f7:g:ZvQAAOSwzuFjdObQ&amp;amdata=enc%3AAQAHAAAAoCjHBa6u64q5qFrbqIEUv%2FHYyMxDUsJnzjffXB%2FbZOVKvZvNh3CzQ0M9Nss5Hd0Qn9foeDmud4MSeaBvDROCN0tPekcNwj6HxEBEb29%2FH%2BdezDLeHS65AS69J%2FHWFiMan6VkXohJHhawhBiNf0ibAFm8%2Bf7pVHlGpYK7P88UU95KekaguMkvVpJS%2BNb%2BVfecoLq9n2Z%2BVRfBBMxmatxTLNQ%3D%7Ctkp%3ABk9SR4jhhMSzYQ</t>
+          <t>https://www.ebay.com/itm/185728524791?epid=5040752558&amp;hash=item2b3e4861f7:g:ZvQAAOSwzuFjdObQ&amp;amdata=enc%3AAQAHAAAAoCjHBa6u64q5qFrbqIEUv%2FHYyMxDUsJnzjffXB%2FbZOVKyLgyveGTX%2BLdVwVK%2BYPFyjPkly3Lo6Ult4Y1ai5QHFSdLILso2LR9r9ge70ipQ%2FcthiU0rz%2BJ48NTLTp77f2%2FYX3k3fmoZ%2BDglibkKxXLR55YIBTFj3JB9hcTxzh4tV%2BJ2btqSMeDDYeTZRxryHi32X79yGWuIQdktzPR8zBJuA%3D%7Ctkp%3ABk9SR8L1ksSzYQ</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -2254,7 +2255,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/155348545036?epid=9040741393&amp;hash=item242b7eae0c:g:Ib0AAOSwqQ9juvzw&amp;amdata=enc%3AAQAHAAAA4En%2Bvqw6hRTDI9Gfp4qk7JywiTMPCuRkxqGwG8z6kk8UZCt2aQsAArcxamcPxykoST1iP4R9GyVdJrhXGJ28C4Zou9HucSAOgFFSIZ5gLpihlkm5ATJd2HOWvlN8v6DEX9mdinOSOXOu7T1QTP%2FVCWn5IithsOw3%2Brkby8Zcuk6aX4XLpvDfkPst0JTaCuPy4WqPkOM%2B%2BnA45CIFwJWXgdUt4vo0XSSl3C8nBZwQxoGbeaEKJ0oQIwbIbmjTDIYB6MASsiutEXnDprs7Q89RUJLmoeUhdeejIhn3rI0Jwu%2Fn%7Ctkp%3ABk9SR4bhhMSzYQ</t>
+          <t>https://www.ebay.com/itm/155348545036?epid=9040741393&amp;hash=item242b7eae0c:g:Ib0AAOSwqQ9juvzw&amp;amdata=enc%3AAQAHAAAA4En%2Bvqw6hRTDI9Gfp4qk7JywiTMPCuRkxqGwG8z6kk8UZCt2aQsAArcxamcPxykoST1iP4R9GyVdJrhXGJ28C4Zou9HucSAOgFFSIZ5gLpihlkm5ATJd2HOWvlN8v6DEXwtFLLea4A%2BG6ROG7hPGxD5hjExLkCHsoauOcuY0FzQ0PRttVoCWzvQFbc%2Fi8r3k6i0AzMlBlh8e6Zvy6CMpPgzE7fEdfinmKnBXDSSBbeHXhJuj6Ukdo0RAnqTqTSLJwvaFI%2BzHz%2Fp5BwZJ2n980mVXwjx6mnNIm6AVORQhQBw%2B%7Ctkp%3ABk9SR8D1ksSzYQ</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -2303,7 +2304,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/325491729420?hash=item4bc8d1a40c:g:vv8AAOSwhJBjusph&amp;amdata=enc%3AAQAHAAAAoIbhgnNh4iYOfozl4yBDK%2FGL1O09w2a19MN87AAh14ROuUQondIDMMAaY%2BX9kyNh4JrSnBzwa01k6cetfZ0Z1sq6suFj357vHffh69aJBAzKwZkZQ0jyVAcqk79IsmQK3%2Bjycn4WJzvgJ8tw7uIgNYpbwaQxkQXkuGCu83PgIW7ECIRvWJuMI2df2nHQ27gA0IMZGh0sAiPFdliNBuqyU%2BU%3D%7Ctkp%3ABk9SR4bhhMSzYQ</t>
+          <t>https://www.ebay.com/itm/325491729420?hash=item4bc8d1a40c:g:vv8AAOSwhJBjusph&amp;amdata=enc%3AAQAHAAAAoIbhgnNh4iYOfozl4yBDK%2FGL1O09w2a19MN87AAh14RORRCfn5JYL6405t%2FGismXWMiFRzLZ%2BIfIG8quYV%2FD2wW0%2FX4ctwJkaa%2BxaiIVmp2fyAi2lYPUGbHxLwkJmGYzgN87IGHWvrn%2F3m9YGg7ZnDZjkueQc6%2BTe%2BF4R7YpBOyLI8byFxFxrV5l9mWPsjMmB5X93oCo66WG2%2Fdd36wZEI4%3D%7Ctkp%3ABk9SR8D1ksSzYQ</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -2352,7 +2353,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/255914035695?epid=26044898729&amp;hash=item3b95aa49ef:g:zh4AAOSwtbJjrGDp&amp;amdata=enc%3AAQAHAAAA4Nut9WDHGyQ7HdlNVeRQKzmcbqjhpcxVJWS07yhkID7CkypABmq5PjsR%2BzaM44WHxJGUFSdJzbDn%2BKMfn6Tsp%2FQyB%2FFYrvwBNrJM2saoGZ4MtlTJSnvSL2zDcSTQornyGVfyW%2BEbqnKCLzkyKTGnVHjSdG5higgut3RfGLBOW9A0QuO%2BPSt%2FtDliUIBXd8p8jJZZsE39uzlT7Zo9VDP%2BeKi1MHk3QDppv1ZFiqWFbpqsWUmyETNMUYLNeEFAq%2BA4mKl4L%2BaT9PYduNFmdSbadooiDf7s5DMWqmkIC3OaYt%2Fg%7Ctkp%3ABk9SR4bhhMSzYQ</t>
+          <t>https://www.ebay.com/itm/255914035695?epid=26044898729&amp;hash=item3b95aa49ef:g:zh4AAOSwtbJjrGDp&amp;amdata=enc%3AAQAHAAAA4Nut9WDHGyQ7HdlNVeRQKzmcbqjhpcxVJWS07yhkID7CkypABmq5PjsR%2BzaM44WHxJGUFSdJzbDn%2BKMfn6Tsp%2FQyB%2FFYrvwBNrJM2saoGZ4MtlTJSnvSL2zDcSTQornyGYclA%2BRzV5qMooVrYK4u2D%2FUH05%2BIpfE5gTg%2BdIiCdu8jgiEI68Z9RYBVTYohy3%2BfJEVdVubpXEBfkCcUmhU16ZMzjK6vg5%2B3RDB9bKCcfEXHBUyxQqey3JY1KLCf7l4KxG4Ht%2F8PkisNZy9Qfia%2B86M%2BErhPvr9DqaBjQfSCO2X%7Ctkp%3ABk9SR8D1ksSzYQ</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -2401,7 +2402,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/165873912188?epid=21045616884&amp;hash=item269edb097c:g:BwMAAOSwnKJjub~r&amp;amdata=enc%3AAQAHAAAAoIytaQnzX3GE1TNjXdHhJp6yDC4BnD%2B2qmJj4yr4GX6H80oik8D2N8ISEljdRT8bgzGur9TMe7v8v3kt%2FyqR0vI1pWsgI5ve4tEzydnlb9Ywy2PjQWUI%2BxMkBDUibCE1G5t8ELHeEfodasFwbxiMa99sdvs1QFqKtlS%2B%2B25vz1Vfgqfe2h43OXH2R8EX5r5lQfdYz8pAzMmdksGcOl7DBRs%3D%7Ctkp%3ABk9SR4jhhMSzYQ</t>
+          <t>https://www.ebay.com/itm/165873912188?epid=21045616884&amp;hash=item269edb097c:g:BwMAAOSwnKJjub~r&amp;amdata=enc%3AAQAHAAAAoIytaQnzX3GE1TNjXdHhJp6yDC4BnD%2B2qmJj4yr4GX6HIpcrfawu%2BsLc7fcv3LgAxd3VZ%2BMW6VYChs51qkLxRnjdC4WznPdGhgQb6RMGynpNxRXQv7L%2Fp1dkVmr0DbSTJbclavb0Qe6hSR88uus3LX%2BM2cTUVRKSUadtIguoudYnfcHz09jxBqnKzBSAJognCDvx4ALOc8toDVHVNfzzfRE%3D%7Ctkp%3ABk9SR8L1ksSzYQ</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2450,7 +2451,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/134403489108?epid=23044081986&amp;hash=item1f4b127d54:g:WFsAAOSwFWpjsHiq&amp;amdata=enc%3AAQAHAAAAoLhVCDt2Sd5ziVwDfQ%2BnBo6AypqcOGJrH2k%2FucJRe%2BTFNVCnTjJ8F3drvM9EXKW8SRZMJlFds%2BOFjW2LWvi2ktTjp5Fw2I%2F4lMioMhkAJlDXaMNO5VjesSSniz0jVhqFAeBNqNM75ND8TM3JTk5A6sPcUVy0%2FcMU8ZUxstZeVf23Cy%2FZdLInGljru8qYUMIuFAcK1yhLEP7N%2BRpfZqp%2Foew%3D%7Ctkp%3ABk9SR4bhhMSzYQ</t>
+          <t>https://www.ebay.com/itm/134403489108?epid=23044081986&amp;hash=item1f4b127d54:g:WFsAAOSwFWpjsHiq&amp;amdata=enc%3AAQAHAAAAoLhVCDt2Sd5ziVwDfQ%2BnBo6AypqcOGJrH2k%2FucJRe%2BTFX%2BrQZOfBuUDFyf8sM0k2DPzvzVb%2FUNg69DclLsWT0mlOQnFkc9dGmxbt2FvxaaX6kFfpzHqt%2BChcReqKFYosEHCt%2FJZAhmnJdF9oPjquEZmt9TXzWfI1wf9S%2B8VRzaTe8TGneWPuw%2FqurB54PKSH1odHpoSAaPN6Iq%2Bb5%2BDZiN8%3D%7Ctkp%3ABk9SR8D1ksSzYQ</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -2501,7 +2502,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/374448557092?hash=item572edf8c24:g:teUAAOSwzd1jKxla&amp;amdata=enc%3AAQAHAAAAoEYPUkhXS4ci3tjvtSvQpsKGNlFKbCudJop4Jk6eWlbhK3WeTT%2BJhgTyo12XBxqHKg8Sa4ePadDR%2FDJBvsvwb9F8XM%2BLxTpdbkKqO3ReINQpt4XRsZRzDP543Tw%2BPW4iFjJ%2BjmvhD8OXD54s858xim4mNPcW7NMMgEnV7Vc9amqQeYejrxv6%2FWpK1%2FSXrXGrL4sEiru8rluZ3YPYDetp2QU%3D%7Ctkp%3ABk9SR4jhhMSzYQ</t>
+          <t>https://www.ebay.com/itm/374448557092?hash=item572edf8c24:g:teUAAOSwzd1jKxla&amp;amdata=enc%3AAQAHAAAAoEYPUkhXS4ci3tjvtSvQpsKGNlFKbCudJop4Jk6eWlbhIID8ra685Vp%2FPafqJvrdNWh3SmPKKb5InZQpPI%2Ft0BC01NiuP0%2F21gO%2F58lOvlZAJdeoP88t%2F%2BmEvpQRNpg7RPOJuPSmddKaEhUzcDCBuTOTdU%2BXfRXZmoIiE51tMsnRUEN6U2PNPhRzZmvH%2Bucq62uqDmzci5B0iVtP%2BC%2FTup0%3D%7Ctkp%3ABk9SR8L1ksSzYQ</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -2550,7 +2551,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/175559460193?epid=5040752558&amp;hash=item28e028c561:g:ZvQAAOSwzuFjdObQ&amp;amdata=enc%3AAQAHAAAAoHB5armnFQyGVToWmZMkbKEf6qYD7y8dhD4PWgwsHeAobdnkUJVP5y7fFKGp6kAG8%2BLNnjHn1rPWiPMSybz1zCjXt3sXNrVmYjorJRt3s7%2B%2F%2FW0n6jXwLt6%2BZsXbpC%2FevSHUWF3QeaHq7hbw1b6rIGH78fhZJg8NQ9CRzSLX4HmA3RvUOEpmvT3es9aaYTL09gvCg9rLpFrJkuxX95F2YzM%3D%7Ctkp%3ABk9SR4jhhMSzYQ</t>
+          <t>https://www.ebay.com/itm/175559460193?epid=5040752558&amp;hash=item28e028c561:g:ZvQAAOSwzuFjdObQ&amp;amdata=enc%3AAQAHAAAAoHB5armnFQyGVToWmZMkbKEf6qYD7y8dhD4PWgwsHeAob%2BHJtV1MisaoZFJntgsxreRCWkwTnSOo4QzHZQY64cXDnOo226Yt%2BUjP9hjr5H34aKbNI3sSrDDxrHSxrjeSG7OMWcVy%2FMqbbZJFFkezwD%2FOlkjhL%2BqhEWAjB3p7Y72wDHcT1JY5pPd7WhP93X%2BQarbfN6F8TBO7zffKejB0W7E%3D%7Ctkp%3ABk9SR8L1ksSzYQ</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -2585,6 +2586,371 @@
       <c r="K12" t="inlineStr">
         <is>
           <t>4d 3h restantes</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Item State</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Item Price</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Item Location</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Shipping Cost</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Total Cost</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Type Auction</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Purchase Options</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Time Left</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Novo anúncioGigaByte GeForce RTX 3080 Ti EAGLE 12GB GDDR6X Grafikkarte</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/234854733311?epid=25047392175&amp;hash=item36ae6ed5ff:g:RekAAOSw~Q5jvXps&amp;amdata=enc%3AAQAHAAAAoKCPBX8T6QTLolmMwAhHbDZxHxZn%2FZRCY1UedFYwOYDHqtBPKZti2ExUM%2BhqamXgP7n4VZA33ooMhyFf45DzgZaOlFV%2BEO2OYTeW6rvkFSoiqWq1I2dVkd7JRdZY6Nbiyg67zscc2OxnTHVNYmX66UwfP4FyD46whkTs72vkdb5S%2BJVUtzgT%2F7Pk14UV0aiGeKBZZJcpHjM5t7SslL7Guwg%3D%7Ctkp%3ABk9SR_yLk8SzYQ</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Seminovo</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>810</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>de Alemanha</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H2" t="n">
+        <v>840</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>ou Oferta direta</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>GeForce RTX™ 3080 Ti SUPRIM X 12G with ekwb waterblock and backplate</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/185722467045?hash=item2b3debf2e5:g:viQAAOSw~QZjUtdS&amp;amdata=enc%3AAQAHAAAAoDjrrHxesihkZ%2FyGX4ch4edp1FAw0RkwF7TTH31nbIUG7VX5EGWEDKBzvh15LHCK5E2Z9ZeYcw0BEwgDULhs0kVBy9E0uaTf7whFqVlIJqLbY3mW8dNjNQ0SQ4gGLU7UEllQIG%2B%2FdoRFv1to7VM3C3GF8545v9b%2BV7pw1I3OMdDjOUOe94bxGIT7NJBVl54%2BxhB1Ixj%2BrciH9jc%2F6JQ8vbY%3D%7Ctkp%3ABk9SR_yLk8SzYQ</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Seminovo</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>800</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>de Irlanda</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>50</v>
+      </c>
+      <c r="H3" t="n">
+        <v>850</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Comprar já!</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ASUS TUF Gaming GeForce RTX 3080 Ti 12GB GDDR6X Grafikkarte ; in OVP ; sehr gut!</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/204208847494?epid=14047875131&amp;hash=item2f8bcbba86:g:3-IAAOSwWENjuc8H&amp;amdata=enc%3AAQAHAAAAoNQ%2BjQg%2FPLd21AkAQfLahBs34UTRvil4CA4vpsjFTgnj6Eymmw%2BZpbBSIsI%2ByxOj2ac0TUo5JhTzLCkUAbqruZGkGJi9xQifi8qZph6MRnWs2DwTAo0VqWDSySfzEiG6%2FtAD%2BhCuqN61178QxI5%2BZr9UleB1sV81samyxSIRIJ8RwVodJy0UCkz6i5PT8SNjWHqp%2Btqo38Va%2BTx5qGvxm5c%3D%7Ctkp%3ABk9SR_yLk8SzYQ</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Seminovo</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>599</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>de Alemanha</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>15</v>
+      </c>
+      <c r="H4" t="n">
+        <v>614</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>No other purchase options</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>5d 3h restantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>RTX 3080 ti MSI Suprim X 12GB GDDR6X</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/325489785003?hash=item4bc8b3f8ab:g:v3UAAOSwubVjuFBN&amp;amdata=enc%3AAQAHAAAAoN%2BkuZZP6Tn3t279GlCsC3xgky5wqjsRAUZNGhqaKrRTxtSwOvWrgE2C2L%2F0tV60%2BjdxihRR1yRxh%2Bg8x%2BzgFzi3ehsEs4feDLC9LNU6jFURkeYpJ2snaHGbrTYXsq%2BSdZvpqGeh7WXga6CkFb%2FmB0xQ3RrjaEK8dv3B%2BcWRjYdaxvvbk3xnSClBQCBISOF6ONDJHPbF687JSV3cq%2Bxv7f0%3D%7Ctkp%3ABk9SR_yLk8SzYQ</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Seminovo</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>745</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>de Itália</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>10</v>
+      </c>
+      <c r="H5" t="n">
+        <v>755</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>No other purchase options</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>6d 2h restantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ASUS TUF Gaming GeForce RTX 3080 Ti OC 12GB Grafikkarte TOP ZUSTAND Restgarantie</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/204209698574?epid=25047865797&amp;hash=item2f8bd8b70e:g:3i4AAOSwAhVjuwLu&amp;amdata=enc%3AAQAHAAAAoIbVW3xJlrWJ1%2Bc2CEns2Y90%2FDZ2fHkbXCkeRVqxdKG%2BIvvN0UJh%2BP3njnrWQhMrr3ZkzZELgmiy0Nbn4TaOI2Z4aNkOGUWDnEkHXdZNYw88QnUyVDRLdLjc2y3yNZ3JREMGIuQaifTZ2vuHUcJwVOvlBvKuBwPGUyzdWMDBkvDcM0x77FZJQkJHEBtaz9ukqnVPdJ5KO5vuYxbnPNkpnGY%3D%7Ctkp%3ABk9SR_yLk8SzYQ</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Seminovo</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>755</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>de Alemanha</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>15</v>
+      </c>
+      <c r="H6" t="n">
+        <v>770</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>No other purchase options</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>5d 2h restantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Novo anúncioNvidia Geforce RTX 3080 ti MSI Ventus 3x 12gb</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/195552431391?hash=item2d87d54d1f:g:XwMAAOSwI1hjfL8T&amp;amdata=enc%3AAQAHAAAAoG8f0xt%2F2CaDzAvVoo84kf8HgO4fhq46VBUIOyhFBmP8SZQwN1v9N0YmGseiMDSbd7hNeNiDcmtuvGnm5Atvj1ZLsloE3GUnbgj7KizZ8NT0tll2SA9c3yXM1%2FBSCvsMb1%2FGPb1KYRJwlHD4Uk%2BR1Ac4FGQmF%2B%2BAUW3Yg9uNEKajxSpGiADiRqM3uaGNHdk1kOtH%2FUBYw%2BfSmpI1qWiM%2Fl0%3D%7Ctkp%3ABk9SR_yLk8SzYQ</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Seminovo</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>800</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>de Itália</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>30</v>
+      </c>
+      <c r="H7" t="n">
+        <v>830</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>No other purchase options</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>6d 21h restantes</t>
         </is>
       </c>
     </row>
